--- a/TP2/tpsim_final.xlsx
+++ b/TP2/tpsim_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="16515" windowHeight="9285"/>
@@ -11,15 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Monto</t>
   </si>
@@ -62,12 +59,63 @@
   <si>
     <t>DESVIACIÓN ESTÁNDAR</t>
   </si>
+  <si>
+    <t>fo-fe</t>
+  </si>
+  <si>
+    <t>(fo-fe)^2</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>raiz</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>probabilidad</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>media poisson</t>
+  </si>
+  <si>
+    <t>frecuencia X Interv.</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>MEDIA POISSON</t>
+  </si>
+  <si>
+    <t>Yxf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,17 +176,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="es-AR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -157,21 +195,18 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$M$1</c:f>
+              <c:f>Hoja1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -180,54 +215,44 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Hoja1!$K$2:$L$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>10</c:v>
+                    <c:v>15</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20</c:v>
+                    <c:v>30</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>30</c:v>
+                    <c:v>45</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>40</c:v>
+                    <c:v>60</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>50</c:v>
+                    <c:v>75</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>60</c:v>
+                    <c:v>90</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>70</c:v>
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>80</c:v>
+                    <c:v>120</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>90</c:v>
+                    <c:v>135</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1000</c:v>
+                    <c:v>290</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -235,34 +260,31 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11</c:v>
+                    <c:v>16</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>21</c:v>
+                    <c:v>31</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>31</c:v>
+                    <c:v>46</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>41</c:v>
+                    <c:v>61</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>51</c:v>
+                    <c:v>76</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>61</c:v>
+                    <c:v>91</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>71</c:v>
+                    <c:v>106</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>81</c:v>
+                    <c:v>121</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>91</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>100</c:v>
+                    <c:v>136</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -270,90 +292,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$M$2:$M$12</c:f>
+              <c:f>Hoja1!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="45204608"/>
-        <c:axId val="45206144"/>
+        <c:axId val="74384896"/>
+        <c:axId val="74386432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45204608"/>
+        <c:axId val="74384896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45206144"/>
+        <c:crossAx val="74386432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45206144"/>
+        <c:axId val="74386432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45204608"/>
+        <c:crossAx val="74384896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -361,15 +364,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -408,178 +409,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>4</v>
-          </cell>
-          <cell r="K4">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>5</v>
-          </cell>
-          <cell r="J5">
-            <v>9</v>
-          </cell>
-          <cell r="K5">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>10</v>
-          </cell>
-          <cell r="J6">
-            <v>14</v>
-          </cell>
-          <cell r="K6">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>15</v>
-          </cell>
-          <cell r="J7">
-            <v>19</v>
-          </cell>
-          <cell r="K7">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>20</v>
-          </cell>
-          <cell r="J8">
-            <v>24</v>
-          </cell>
-          <cell r="K8">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>25</v>
-          </cell>
-          <cell r="J9">
-            <v>29</v>
-          </cell>
-          <cell r="K9">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>30</v>
-          </cell>
-          <cell r="J10">
-            <v>34</v>
-          </cell>
-          <cell r="K10">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>35</v>
-          </cell>
-          <cell r="J11">
-            <v>39</v>
-          </cell>
-          <cell r="K11">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>40</v>
-          </cell>
-          <cell r="J12">
-            <v>44</v>
-          </cell>
-          <cell r="K12">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>45</v>
-          </cell>
-          <cell r="J13">
-            <v>49</v>
-          </cell>
-          <cell r="K13">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>50</v>
-          </cell>
-          <cell r="J14">
-            <v>54</v>
-          </cell>
-          <cell r="K14">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15">
-            <v>55</v>
-          </cell>
-          <cell r="J15">
-            <v>59</v>
-          </cell>
-          <cell r="K15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16">
-            <v>60</v>
-          </cell>
-          <cell r="J16">
-            <v>64</v>
-          </cell>
-          <cell r="K16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17">
-            <v>65</v>
-          </cell>
-          <cell r="J17">
-            <v>69</v>
-          </cell>
-          <cell r="K17">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,7 +486,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -692,7 +520,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -868,20 +695,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,6 +722,15 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
@@ -901,19 +741,37 @@
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -923,7 +781,18 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="F2">
+        <f>M2*N2</f>
+        <v>172.5</v>
+      </c>
+      <c r="G2" s="1">
+        <f>((EXP(-$G$16))*($G$16^M2))/(FACT(M2))</f>
+        <v>4.0785236342940281E-9</v>
+      </c>
+      <c r="H2">
+        <f>200*G2</f>
+        <v>8.1570472685880562E-7</v>
+      </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
@@ -931,26 +800,45 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <f>(L2+K2)/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="N2" s="1">
         <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K2)-COUNTIF($B$2:$B$201,"&gt;"&amp;L2)</f>
-        <v>8</v>
-      </c>
-      <c r="N2" s="1">
-        <f>M2/$M$14</f>
-        <v>0.04</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1">
-        <f>M2</f>
-        <v>8</v>
+        <f>N2/$N$14</f>
+        <v>0.115</v>
       </c>
       <c r="P2" s="1">
         <f>N2</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>O2</f>
+        <v>0.115</v>
+      </c>
+      <c r="R2">
+        <f>N2-H2</f>
+        <v>22.999999184295273</v>
+      </c>
+      <c r="S2">
+        <f>((R2)^2)/H2</f>
+        <v>648518937.13391531</v>
+      </c>
+      <c r="T2">
+        <v>0.1</v>
+      </c>
+      <c r="U2">
+        <f>Q2-T2</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -960,34 +848,64 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">M3*N3</f>
+        <v>1610</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="1">((EXP(-$G$16))*($G$16^M3))/(FACT(M3))</f>
+        <v>2.5319257913259171E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">200*G3</f>
+        <v>0.50638515826518338</v>
+      </c>
       <c r="J3" s="1">
         <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M12" si="0">COUNTIF($B$2:$B$201,"&gt;="&amp;K3)-COUNTIF($B$2:$B$201,"&gt;"&amp;L3)</f>
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="3">(L3+K3)/2</f>
+        <v>23</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N12" si="1">M3/$M$14</f>
-        <v>0.26</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K3)-COUNTIF($B$2:$B$201,"&gt;"&amp;L3)</f>
+        <v>70</v>
       </c>
       <c r="O3" s="1">
-        <f>O2+M3</f>
-        <v>60</v>
+        <f>N3/$N$14</f>
+        <v>0.35</v>
       </c>
       <c r="P3" s="1">
         <f>P2+N3</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>Q2+O3</f>
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="4">N3-H3</f>
+        <v>69.493614841734811</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="5">((R3)^2)/H3</f>
+        <v>9536.9353247165036</v>
+      </c>
+      <c r="T3">
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U11" si="6">Q3-T3</f>
+        <v>0.26499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -997,34 +915,64 @@
       <c r="C4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2356</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4567961399867466E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>12.913592279973493</v>
+      </c>
       <c r="J4" s="1">
         <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.16500000000000001</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K4)-COUNTIF($B$2:$B$201,"&gt;"&amp;L4)</f>
+        <v>62</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O12" si="2">O3+M4</f>
-        <v>93</v>
+        <f>N4/$N$14</f>
+        <v>0.31</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P12" si="3">P3+N4</f>
-        <v>0.46499999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P4:P11" si="7">P3+N4</f>
+        <v>155</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q11" si="8">Q3+O4</f>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>49.086407720026507</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>186.5844430130656</v>
+      </c>
+      <c r="T4">
+        <v>0.3</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>0.47499999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1034,34 +982,64 @@
       <c r="C5" s="1">
         <v>22</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>742</v>
+      </c>
+      <c r="G5" s="1">
+        <f>((EXP(-$G$16))*($G$16^M5))/(FACT(M5))</f>
+        <v>4.0757301864675641E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.81514603729351287</v>
+      </c>
       <c r="J5" s="1">
         <v>4</v>
       </c>
       <c r="K5" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1">
-        <v>40</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.27</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K5)-COUNTIF($B$2:$B$201,"&gt;"&amp;L5)</f>
+        <v>14</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="2"/>
-        <v>147</v>
+        <f>N5/$N$14</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="3"/>
-        <v>0.73499999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>13.184853962706487</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>213.2628585119424</v>
+      </c>
+      <c r="T5">
+        <v>0.4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>0.44499999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1071,34 +1049,64 @@
       <c r="C6" s="1">
         <v>22</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1428</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6246320489153137E-6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7.2492640978306271E-4</v>
+      </c>
       <c r="J6" s="1">
         <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1">
-        <v>50</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5000000000000006E-2</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K6)-COUNTIF($B$2:$B$201,"&gt;"&amp;L6)</f>
+        <v>21</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>164</v>
+        <f>N6/$N$14</f>
+        <v>0.105</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="3"/>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>20.999275073590216</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>608295.61134111439</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1108,34 +1116,64 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1754638792142832E-10</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2.3509277584285664E-8</v>
+      </c>
       <c r="J7" s="1">
         <v>6</v>
       </c>
       <c r="K7" s="1">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="L7" s="1">
-        <v>60</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>83</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K7)-COUNTIF($B$2:$B$201,"&gt;"&amp;L7)</f>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="2"/>
-        <v>169</v>
+        <f>N7/$N$14</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>2.9999999764907224</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>382827580.58717281</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1145,34 +1183,64 @@
       <c r="C8" s="1">
         <v>14</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5382690691297427E-16</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>5.0765381382594856E-14</v>
+      </c>
       <c r="J8" s="1">
         <v>7</v>
       </c>
       <c r="K8" s="1">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1">
-        <v>70</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.09</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K8)-COUNTIF($B$2:$B$201,"&gt;"&amp;L8)</f>
+        <v>3</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="2"/>
-        <v>187</v>
+        <f>N8/$N$14</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="3"/>
-        <v>0.93499999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999494</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>177286169332028.06</v>
+      </c>
+      <c r="T8">
+        <v>0.7</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1182,34 +1250,64 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5330063824581695E-23</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1.1066012764916338E-20</v>
+      </c>
       <c r="J9" s="1">
         <v>8</v>
       </c>
       <c r="K9" s="1">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="L9" s="1">
-        <v>80</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>120</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K9)-COUNTIF($B$2:$B$201,"&gt;"&amp;L9)</f>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
-        <v>191</v>
+        <f>N9/$N$14</f>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="3"/>
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>-1.1066012764916338E-20</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>1.1066012764916338E-20</v>
+      </c>
+      <c r="T9">
+        <v>0.8</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>0.17999999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1219,34 +1317,64 @@
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6516967367635634E-30</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>3.3033934735271268E-28</v>
+      </c>
       <c r="J10" s="1">
         <v>9</v>
       </c>
       <c r="K10" s="1">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L10" s="1">
-        <v>90</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>128</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K10)-COUNTIF($B$2:$B$201,"&gt;"&amp;L10)</f>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
-        <v>193</v>
+        <f>N10/$N$14</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>3.027190094107293E+27</v>
+      </c>
+      <c r="T10">
+        <v>0.9</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>8.4999999999999964E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1256,34 +1384,63 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>639</v>
+      </c>
+      <c r="G11" s="1" t="e">
+        <f>((EXP(-$G$16))*($G$16^M11))/(FACT(M11))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="J11" s="1">
         <v>10</v>
       </c>
       <c r="K11" s="1">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="L11" s="1">
-        <v>100</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="N11" s="1">
+        <f>COUNTIF($B$2:$B$201,"&gt;="&amp;K11)-COUNTIF($B$2:$B$201,"&gt;"&amp;L11)</f>
         <v>3</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="1"/>
+      <c r="O11" s="1">
+        <f>N11/$N$14</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O11" s="1">
-        <f t="shared" si="2"/>
-        <v>196</v>
-      </c>
       <c r="P11" s="1">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1293,34 +1450,30 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>7618.5</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="J12" s="1">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <f>SUM(S2:S10)</f>
+        <v>3.02719009410747E+27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1332,7 +1485,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1348,16 +1501,16 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <f>SUM(M2:M12)</f>
-        <v>200</v>
-      </c>
       <c r="N14" s="1">
         <f>SUM(N2:N12)</f>
+        <v>200</v>
+      </c>
+      <c r="O14" s="1">
+        <f>SUM(O2:O12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1369,7 +1522,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1380,14 +1533,14 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <f>AVERAGE(B2:B201)</f>
-        <v>37.734999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F12/200</f>
+        <v>38.092500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1404,8 +1557,15 @@
         <f>STDEVA(B2:B201)</f>
         <v>29.483745202327654</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="e">
+        <f>S12/S1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1415,9 +1575,22 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1">
+        <f>AVERAGE(B2:B201)</f>
+        <v>37.734999999999999</v>
+      </c>
+      <c r="S18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18">
+        <f>MAX(U2:U11)</f>
+        <v>0.47499999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1429,7 +1602,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1440,8 +1613,15 @@
         <v>13</v>
       </c>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20">
+        <f>SQRT(200)</f>
+        <v>14.142135623730951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1452,8 +1632,15 @@
         <v>1</v>
       </c>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21">
+        <f>1.36/T20</f>
+        <v>9.616652224137047E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1465,7 +1652,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1475,9 +1662,12 @@
       <c r="C23" s="1">
         <v>10</v>
       </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1487,9 +1677,12 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1501,7 +1694,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1513,7 +1706,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1525,7 +1718,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1537,7 +1730,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1549,7 +1742,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1561,7 +1754,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1573,7 +1766,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1585,7 +1778,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1597,7 +1790,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1609,7 +1802,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1621,7 +1814,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1633,7 +1826,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1645,7 +1838,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1657,7 +1850,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1669,7 +1862,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1681,7 +1874,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1693,7 +1886,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1705,7 +1898,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1717,7 +1910,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1729,7 +1922,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1741,7 +1934,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1753,7 +1946,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1765,7 +1958,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1777,7 +1970,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1789,7 +1982,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1801,7 +1994,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1813,7 +2006,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1825,7 +2018,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1837,7 +2030,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1849,7 +2042,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1861,7 +2054,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1873,7 +2066,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1884,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1899,10 +2092,10 @@
       </c>
       <c r="H58">
         <f>SUM(H2:H56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14.235849241156028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1913,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1924,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1935,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1946,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1957,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1968,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1979,7 +2172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1990,7 +2183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2001,7 +2194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2012,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2023,7 +2216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2034,7 +2227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2045,7 +2238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2056,7 +2249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2067,7 +2260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2078,7 +2271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2089,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2100,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2111,7 +2304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2122,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2133,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2144,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2155,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2166,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2177,7 +2370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2188,7 +2381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2199,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2210,7 +2403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2221,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2232,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2243,7 +2436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2254,7 +2447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2265,7 +2458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2276,7 +2469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2287,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2298,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2309,7 +2502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2320,7 +2513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2331,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2342,7 +2535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2353,7 +2546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2364,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2375,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2386,7 +2579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2397,7 +2590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2408,7 +2601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2419,7 +2612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2430,7 +2623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2441,7 +2634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2452,7 +2645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2463,7 +2656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2474,7 +2667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2485,7 +2678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2496,7 +2689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2507,7 +2700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2518,7 +2711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2529,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2540,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2551,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2562,7 +2755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2573,7 +2766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2584,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2595,7 +2788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2606,7 +2799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2617,7 +2810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2628,7 +2821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2639,7 +2832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2650,7 +2843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -2661,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -2672,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -2683,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2694,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2705,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2716,7 +2909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2727,7 +2920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -2738,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2749,7 +2942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2760,7 +2953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2771,7 +2964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2782,7 +2975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2793,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2804,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2815,7 +3008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2826,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2837,7 +3030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2848,7 +3041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2859,7 +3052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2870,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2881,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2892,7 +3085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2903,7 +3096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2914,7 +3107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2925,7 +3118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2936,7 +3129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2947,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2958,7 +3151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2969,7 +3162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -2980,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -2991,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3002,7 +3195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3013,7 +3206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3024,7 +3217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3035,7 +3228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3046,7 +3239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3057,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3068,7 +3261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3079,7 +3272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3090,7 +3283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3101,7 +3294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3112,7 +3305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3123,7 +3316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -3134,7 +3327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3145,7 +3338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3156,7 +3349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3167,7 +3360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -3178,7 +3371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -3189,7 +3382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -3200,7 +3393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3211,7 +3404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3222,7 +3415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3233,7 +3426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3244,7 +3437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3255,7 +3448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3266,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -3277,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -3288,7 +3481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -3299,7 +3492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -3310,7 +3503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -3321,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -3332,7 +3525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -3343,7 +3536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -3354,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -3365,7 +3558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -3376,7 +3569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -3387,7 +3580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -3398,7 +3591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -3409,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -3420,7 +3613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -3431,7 +3624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -3442,7 +3635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -3453,7 +3646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -3464,7 +3657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -3486,24 +3679,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
